--- a/ConsolidadoSaldos.xlsx
+++ b/ConsolidadoSaldos.xlsx
@@ -9021,7 +9021,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.49303240740740745</v>
+        <v>0.50709490740740748</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">

--- a/ConsolidadoSaldos.xlsx
+++ b/ConsolidadoSaldos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.48743055555555559</v>
+        <v>0.51857638888888891</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -9915,22 +9915,22 @@
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12">
-        <v>-12515098666</v>
+        <v>-12523906960</v>
       </c>
       <c r="E8" s="12">
-        <v>-6330697960</v>
+        <v>-6339506254</v>
       </c>
       <c r="F8" s="12">
         <v>-6184400706</v>
       </c>
       <c r="G8" s="13">
-        <v>50.584483022884385</v>
+        <v>50.619237864411602</v>
       </c>
       <c r="H8" s="14">
-        <v>-12671062107</v>
+        <v>-12679870401</v>
       </c>
       <c r="I8" s="12">
-        <v>-539210312</v>
+        <v>-548018606</v>
       </c>
       <c r="J8" s="12">
         <v>-2095581364</v>
@@ -9974,22 +9974,22 @@
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18">
-        <v>-8610055636</v>
+        <v>-8618863930</v>
       </c>
       <c r="E9" s="18">
-        <v>-4389804538</v>
+        <v>-4398612832</v>
       </c>
       <c r="F9" s="18">
         <v>-4220251098</v>
       </c>
       <c r="G9" s="19">
-        <v>50.984624531873351</v>
+        <v>51.03471719387035</v>
       </c>
       <c r="H9" s="20">
-        <v>-8621880206</v>
+        <v>-8630688500</v>
       </c>
       <c r="I9" s="21">
-        <v>-261438797</v>
+        <v>-270247091</v>
       </c>
       <c r="J9" s="21">
         <v>-1996300000</v>
@@ -10270,10 +10270,10 @@
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="33">
-        <v>-5195421639</v>
+        <v>-5204229933</v>
       </c>
       <c r="E18" s="32">
-        <v>-5132025494</v>
+        <v>-5140833788</v>
       </c>
       <c r="F18" s="32">
         <v>-378473</v>
@@ -10285,7 +10285,7 @@
         <v>-55722826</v>
       </c>
       <c r="I18" s="34">
-        <v>-2523504</v>
+        <v>-11331798</v>
       </c>
       <c r="J18" s="34">
         <v>-1610950155</v>

--- a/ConsolidadoSaldos.xlsx
+++ b/ConsolidadoSaldos.xlsx
@@ -7961,7 +7961,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.47285879629629629</v>
+        <v>0.54504629629629631</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
